--- a/StructureDefinition-be-model-medication-record.xlsx
+++ b/StructureDefinition-be-model-medication-record.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$33</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="139">
   <si>
     <t>Path</t>
   </si>
@@ -236,20 +236,16 @@
     <t>BeMedicationRecord.patient.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference
-</t>
-  </si>
-  <si>
-    <t>An identifier or reference to the patient defined elsewhere</t>
-  </si>
-  <si>
-    <t>BeMedicationRecord.recordIdentifier</t>
-  </si>
-  <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
+    <t>An identifier or reference to the patient defined elsewhere</t>
+  </si>
+  <si>
+    <t>BeMedicationRecord.recordIdentifier</t>
+  </si>
+  <si>
     <t>An identifier of the medication record when it needs to be exchanged or tracked</t>
   </si>
   <si>
@@ -310,7 +306,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>be-vs-medication-summary-types</t>
+    <t>http://hl7belgium.org/fhir/riziv-medicationrecord/ValueSet/be-vs-medication-summary-types</t>
   </si>
   <si>
     <t>BeMedicationRecord.summary.basedOn</t>
@@ -345,7 +341,7 @@
     <t>The period to which the summary refers</t>
   </si>
   <si>
-    <t>BeMedicationRecord.summary.treatmentLine</t>
+    <t>BeMedicationRecord.treatmentLine</t>
   </si>
   <si>
     <t>Each line in the summary</t>
@@ -354,19 +350,13 @@
     <t>Each line in the summary - different types of summary may have different criteria for what constitutes a unique line</t>
   </si>
   <si>
-    <t>BeMedicationRecord.summary.treatmentLine.identifier</t>
+    <t>BeMedicationRecord.treatmentLine.identifier</t>
   </si>
   <si>
     <t>Unique business identifier for this treatment line</t>
   </si>
   <si>
-    <t>BeMedicationRecord.summary.treatmentLine.details</t>
-  </si>
-  <si>
-    <t>The details of the medication</t>
-  </si>
-  <si>
-    <t>BeMedicationRecord.summary.treatmentLine.details.dosage</t>
+    <t>BeMedicationRecord.treatmentLine.dosage</t>
   </si>
   <si>
     <t xml:space="preserve">Dosage
@@ -376,7 +366,7 @@
     <t>The medication dosage</t>
   </si>
   <si>
-    <t>BeMedicationRecord.summary.treatmentLine.details.status</t>
+    <t>BeMedicationRecord.treatmentLine.status</t>
   </si>
   <si>
     <t xml:space="preserve">code
@@ -386,37 +376,41 @@
     <t>The medication status</t>
   </si>
   <si>
-    <t>BeMedicationRecord.summary.treatmentLine.details.type</t>
+    <t>BeMedicationRecord.treatmentLine.type</t>
   </si>
   <si>
     <t>The type of medication - OTC, hospital, or other</t>
   </si>
   <si>
-    <t>BeMedicationRecord.summary.treatmentLine.details.indication</t>
+    <t>BeMedicationRecord.treatmentLine.indication[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/medication-indication)</t>
   </si>
   <si>
     <t>The indication(s) for which this medication is taken</t>
   </si>
   <si>
-    <t>BeMedicationRecord.summary.treatmentLine.details.medication</t>
+    <t>BeMedicationRecord.treatmentLine.medication</t>
   </si>
   <si>
     <t>The medication that is planned or taken</t>
   </si>
   <si>
-    <t>BeMedicationRecord.summary.treatmentLine.details.medication.reference</t>
+    <t>BeMedicationRecord.treatmentLine.medication.reference</t>
   </si>
   <si>
     <t>A reference to a medication description</t>
   </si>
   <si>
-    <t>BeMedicationRecord.summary.treatmentLine.details.medication.code</t>
+    <t>BeMedicationRecord.treatmentLine.medication.code</t>
   </si>
   <si>
     <t>The code of the medication</t>
   </si>
   <si>
-    <t>BeMedicationRecord.summary.treatmentLine.details.medication.class</t>
+    <t>BeMedicationRecord.treatmentLine.medication.class</t>
   </si>
   <si>
     <t>The class of the medication e.g. ATC</t>
@@ -604,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AJ33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -613,7 +607,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="69.69921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.7734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -637,13 +631,13 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="31.953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.8203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="69.69921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="53.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
@@ -1388,13 +1382,13 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1465,7 +1459,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1491,10 +1485,10 @@
         <v>64</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1545,7 +1539,7 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
@@ -1565,7 +1559,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1588,13 +1582,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1645,7 +1639,7 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
@@ -1665,7 +1659,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1688,13 +1682,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1745,7 +1739,7 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
@@ -1765,7 +1759,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1788,13 +1782,13 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1845,7 +1839,7 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
@@ -1865,7 +1859,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1888,13 +1882,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1945,7 +1939,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>47</v>
@@ -1965,7 +1959,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1988,13 +1982,13 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2021,11 +2015,11 @@
         <v>37</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>37</v>
@@ -2043,7 +2037,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>47</v>
@@ -2063,7 +2057,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2086,13 +2080,13 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2143,7 +2137,7 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
@@ -2163,7 +2157,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2186,13 +2180,13 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="L16" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2243,7 +2237,7 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
@@ -2263,7 +2257,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2286,13 +2280,13 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2343,7 +2337,7 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
@@ -2363,7 +2357,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2389,10 +2383,10 @@
         <v>64</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2443,7 +2437,7 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>38</v>
@@ -2463,7 +2457,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2486,13 +2480,13 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2543,7 +2537,7 @@
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>38</v>
@@ -2563,7 +2557,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2586,7 +2580,7 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>110</v>
@@ -2643,7 +2637,7 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>38</v>
@@ -2671,7 +2665,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>47</v>
@@ -2746,7 +2740,7 @@
         <v>111</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>47</v>
@@ -2771,7 +2765,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>47</v>
@@ -2786,13 +2780,13 @@
         <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="L22" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2846,7 +2840,7 @@
         <v>114</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>47</v>
@@ -2863,7 +2857,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -2874,7 +2868,7 @@
         <v>38</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>37</v>
@@ -2886,7 +2880,7 @@
         <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>118</v>
@@ -2943,13 +2937,13 @@
         <v>37</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>37</v>
@@ -2971,7 +2965,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>39</v>
@@ -2986,7 +2980,7 @@
         <v>37</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>120</v>
@@ -3046,7 +3040,7 @@
         <v>119</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -3071,10 +3065,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>37</v>
@@ -3086,7 +3080,7 @@
         <v>37</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>122</v>
@@ -3146,10 +3140,10 @@
         <v>121</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>37</v>
@@ -3186,7 +3180,7 @@
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>124</v>
@@ -3274,7 +3268,7 @@
         <v>38</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>37</v>
@@ -3286,7 +3280,7 @@
         <v>37</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>126</v>
@@ -3349,7 +3343,7 @@
         <v>38</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>37</v>
@@ -3374,7 +3368,7 @@
         <v>38</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>37</v>
@@ -3386,7 +3380,7 @@
         <v>37</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>128</v>
@@ -3449,7 +3443,7 @@
         <v>38</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>37</v>
@@ -3474,7 +3468,7 @@
         <v>38</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>37</v>
@@ -3486,7 +3480,7 @@
         <v>37</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>130</v>
@@ -3549,7 +3543,7 @@
         <v>38</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>37</v>
@@ -3586,7 +3580,7 @@
         <v>37</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>132</v>
@@ -3686,7 +3680,7 @@
         <v>37</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>134</v>
@@ -3786,7 +3780,7 @@
         <v>37</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>136</v>
@@ -3886,7 +3880,7 @@
         <v>37</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>138</v>
@@ -3961,108 +3955,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" hidden="true">
-      <c r="A34" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ34">
+  <autoFilter ref="A1:AJ33">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4072,7 +3966,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI33">
+  <conditionalFormatting sqref="A2:AI32">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-model-medication-record.xlsx
+++ b/StructureDefinition-be-model-medication-record.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$34</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="141">
   <si>
     <t>Path</t>
   </si>
@@ -236,16 +236,20 @@
     <t>BeMedicationRecord.patient.identifier</t>
   </si>
   <si>
+    <t xml:space="preserve">CodeableReference
+</t>
+  </si>
+  <si>
+    <t>An identifier or reference to the patient defined elsewhere</t>
+  </si>
+  <si>
+    <t>BeMedicationRecord.recordIdentifier</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
-    <t>An identifier or reference to the patient defined elsewhere</t>
-  </si>
-  <si>
-    <t>BeMedicationRecord.recordIdentifier</t>
-  </si>
-  <si>
     <t>An identifier of the medication record when it needs to be exchanged or tracked</t>
   </si>
   <si>
@@ -306,7 +310,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7belgium.org/fhir/riziv-medicationrecord/ValueSet/be-vs-medication-summary-types</t>
+    <t>be-vs-medication-summary-types</t>
   </si>
   <si>
     <t>BeMedicationRecord.summary.basedOn</t>
@@ -341,7 +345,7 @@
     <t>The period to which the summary refers</t>
   </si>
   <si>
-    <t>BeMedicationRecord.treatmentLine</t>
+    <t>BeMedicationRecord.summary.treatmentLine</t>
   </si>
   <si>
     <t>Each line in the summary</t>
@@ -350,13 +354,19 @@
     <t>Each line in the summary - different types of summary may have different criteria for what constitutes a unique line</t>
   </si>
   <si>
-    <t>BeMedicationRecord.treatmentLine.identifier</t>
+    <t>BeMedicationRecord.summary.treatmentLine.identifier</t>
   </si>
   <si>
     <t>Unique business identifier for this treatment line</t>
   </si>
   <si>
-    <t>BeMedicationRecord.treatmentLine.dosage</t>
+    <t>BeMedicationRecord.summary.treatmentLine.details</t>
+  </si>
+  <si>
+    <t>The details of the medication</t>
+  </si>
+  <si>
+    <t>BeMedicationRecord.summary.treatmentLine.details.dosage</t>
   </si>
   <si>
     <t xml:space="preserve">Dosage
@@ -366,7 +376,7 @@
     <t>The medication dosage</t>
   </si>
   <si>
-    <t>BeMedicationRecord.treatmentLine.status</t>
+    <t>BeMedicationRecord.summary.treatmentLine.details.status</t>
   </si>
   <si>
     <t xml:space="preserve">code
@@ -376,41 +386,37 @@
     <t>The medication status</t>
   </si>
   <si>
-    <t>BeMedicationRecord.treatmentLine.type</t>
+    <t>BeMedicationRecord.summary.treatmentLine.details.type</t>
   </si>
   <si>
     <t>The type of medication - OTC, hospital, or other</t>
   </si>
   <si>
-    <t>BeMedicationRecord.treatmentLine.indication[x]</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-Reference(http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/medication-indication)</t>
+    <t>BeMedicationRecord.summary.treatmentLine.details.indication</t>
   </si>
   <si>
     <t>The indication(s) for which this medication is taken</t>
   </si>
   <si>
-    <t>BeMedicationRecord.treatmentLine.medication</t>
+    <t>BeMedicationRecord.summary.treatmentLine.details.medication</t>
   </si>
   <si>
     <t>The medication that is planned or taken</t>
   </si>
   <si>
-    <t>BeMedicationRecord.treatmentLine.medication.reference</t>
+    <t>BeMedicationRecord.summary.treatmentLine.details.medication.reference</t>
   </si>
   <si>
     <t>A reference to a medication description</t>
   </si>
   <si>
-    <t>BeMedicationRecord.treatmentLine.medication.code</t>
+    <t>BeMedicationRecord.summary.treatmentLine.details.medication.code</t>
   </si>
   <si>
     <t>The code of the medication</t>
   </si>
   <si>
-    <t>BeMedicationRecord.treatmentLine.medication.class</t>
+    <t>BeMedicationRecord.summary.treatmentLine.details.medication.class</t>
   </si>
   <si>
     <t>The class of the medication e.g. ATC</t>
@@ -598,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ33"/>
+  <dimension ref="A1:AJ34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -607,7 +613,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.7734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="69.69921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -631,13 +637,13 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="85.8203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="31.953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="53.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="69.69921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
@@ -1382,13 +1388,13 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1459,7 +1465,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1485,10 +1491,10 @@
         <v>64</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1539,7 +1545,7 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
@@ -1559,7 +1565,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1582,13 +1588,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1639,7 +1645,7 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
@@ -1659,7 +1665,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1682,13 +1688,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1739,7 +1745,7 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
@@ -1759,7 +1765,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1782,13 +1788,13 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1839,7 +1845,7 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
@@ -1859,7 +1865,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1882,13 +1888,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1939,7 +1945,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>47</v>
@@ -1959,7 +1965,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1982,13 +1988,13 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2015,11 +2021,11 @@
         <v>37</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>37</v>
@@ -2037,7 +2043,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>47</v>
@@ -2057,7 +2063,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2080,13 +2086,13 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2137,7 +2143,7 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
@@ -2157,7 +2163,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2180,13 +2186,13 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2237,7 +2243,7 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
@@ -2257,7 +2263,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2280,13 +2286,13 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2337,7 +2343,7 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
@@ -2357,7 +2363,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2383,10 +2389,10 @@
         <v>64</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2437,7 +2443,7 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>38</v>
@@ -2457,7 +2463,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2480,13 +2486,13 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2537,7 +2543,7 @@
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>38</v>
@@ -2557,7 +2563,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2580,7 +2586,7 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>110</v>
@@ -2637,7 +2643,7 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>38</v>
@@ -2665,7 +2671,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>47</v>
@@ -2740,7 +2746,7 @@
         <v>111</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>47</v>
@@ -2765,7 +2771,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>47</v>
@@ -2780,13 +2786,13 @@
         <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2840,7 +2846,7 @@
         <v>114</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>47</v>
@@ -2857,7 +2863,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -2868,7 +2874,7 @@
         <v>38</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>37</v>
@@ -2880,7 +2886,7 @@
         <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>118</v>
@@ -2937,13 +2943,13 @@
         <v>37</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>37</v>
@@ -2965,7 +2971,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>39</v>
@@ -2980,7 +2986,7 @@
         <v>37</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>120</v>
@@ -3040,7 +3046,7 @@
         <v>119</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -3065,10 +3071,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>37</v>
@@ -3080,7 +3086,7 @@
         <v>37</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>122</v>
@@ -3140,10 +3146,10 @@
         <v>121</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>37</v>
@@ -3180,7 +3186,7 @@
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>124</v>
@@ -3268,7 +3274,7 @@
         <v>38</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>37</v>
@@ -3280,7 +3286,7 @@
         <v>37</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>126</v>
@@ -3343,7 +3349,7 @@
         <v>38</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>37</v>
@@ -3368,7 +3374,7 @@
         <v>38</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>37</v>
@@ -3380,7 +3386,7 @@
         <v>37</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>128</v>
@@ -3443,7 +3449,7 @@
         <v>38</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>37</v>
@@ -3468,7 +3474,7 @@
         <v>38</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>37</v>
@@ -3480,7 +3486,7 @@
         <v>37</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>130</v>
@@ -3543,7 +3549,7 @@
         <v>38</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>37</v>
@@ -3580,7 +3586,7 @@
         <v>37</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>132</v>
@@ -3680,7 +3686,7 @@
         <v>37</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>134</v>
@@ -3780,7 +3786,7 @@
         <v>37</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>136</v>
@@ -3880,7 +3886,7 @@
         <v>37</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>138</v>
@@ -3955,8 +3961,108 @@
         <v>37</v>
       </c>
     </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ33">
+  <autoFilter ref="A1:AJ34">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3966,7 +4072,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI32">
+  <conditionalFormatting sqref="A2:AI33">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
